--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -1,77 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andromeda\eclipse-workspace\march2022\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56777A4-4D67-42FC-A0EE-C52BA60E9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1050" windowWidth="24105" windowHeight="13050" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Config" sheetId="1" r:id="rId1"/>
-    <sheet name="Path" sheetId="5" r:id="rId2"/>
-    <sheet name="TestData" sheetId="2" r:id="rId3"/>
-    <sheet name="Payloads" sheetId="3" r:id="rId4"/>
-    <sheet name="Schemas" sheetId="4" r:id="rId5"/>
+    <sheet name="Config" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Path" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TestData" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Payloads" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Schemas" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>BaseUrlApp</t>
-  </si>
-  <si>
-    <t>https://testautomasi.com</t>
-  </si>
-  <si>
-    <t>BaseUrlAPI</t>
-  </si>
-  <si>
-    <t>https://api-staging-builder.engineer.ai</t>
-  </si>
-  <si>
-    <t>SeleniumWait</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>fullstackdemo</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>LoginPayload</t>
-  </si>
-  <si>
-    <t>{"email":"jogidemo321@gmail.com","password":"builder123"}</t>
-  </si>
-  <si>
-    <t>IncorrectLoginPayload</t>
-  </si>
-  <si>
-    <t>{"email":"$.username","password":"$.password"}</t>
-  </si>
-  <si>
-    <t>DashboardAPISchema</t>
-  </si>
-  <si>
-    <t>{
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaseUrlApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://testautomasi.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaseUrlAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api-staging-builder.engineer.ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeleniumWait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/build_cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/configurations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fullstackdemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginPayload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"email":"testlabs@gmail.com","password":"builder123"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IncorrectLoginPayload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"email":"$.username","password":"$.password"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DashboardAPISchema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
   "$schema": "http://json-schema.org/draft-04/schema#",
   "type": "object",
   "properties": {
@@ -134,10 +146,10 @@
 }</t>
   </si>
   <si>
-    <t>UserAPISchema</t>
-  </si>
-  <si>
-    <t>{
+    <t xml:space="preserve">UserAPISchema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
   "$schema": "http://json-schema.org/draft-04/schema#",
   "type": "object",
   "properties": {
@@ -466,22 +478,10 @@
 }</t>
   </si>
   <si>
-    <t>ConfigAPISchema</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>/build_cards</t>
-  </si>
-  <si>
-    <t>Config</t>
-  </si>
-  <si>
-    <t>/configurations</t>
-  </si>
-  <si>
-    <t>{
+    <t xml:space="preserve">ConfigAPISchema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
   "$schema": "http://json-schema.org/draft-04/schema#",
   "type": "object",
   "properties": {
@@ -1556,10 +1556,10 @@
                 "id</t>
   </si>
   <si>
-    <t>DashboardNoTokenSchema</t>
-  </si>
-  <si>
-    <t>{
+    <t xml:space="preserve">DashboardNoTokenSchema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
   "$schema": "http://json-schema.org/draft-04/schema#",
   "type": "object",
   "properties": {
@@ -1573,10 +1573,10 @@
 }</t>
   </si>
   <si>
-    <t>DashboardNoParamSchema</t>
-  </si>
-  <si>
-    <t>{
+    <t xml:space="preserve">DashboardNoParamSchema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
   "$schema": "http://json-schema.org/draft-04/schema#",
   "type": "object",
   "properties": {
@@ -1593,21 +1593,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1619,7 +1638,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1627,539 +1646,346 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://testautomasi.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://api-staging-builder.engineer.ai"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35101D28-9E75-487A-ABEA-E20C3F5E1F01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
+    <row r="2" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.5">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
+    <row r="3" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.5">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="409.5">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="409.5">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>